--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ Án\DO AN\Do_AN\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đăng_Quý_UTE_K19\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C78870-A838-4F23-A310-36AB0B02AB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D10D1-2361-47FB-A4B9-4FA4F241A1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -3311,8 +3311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3322,7 +3322,9 @@
     <col min="4" max="4" width="255.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="12.109375" style="2"/>
     <col min="9" max="9" width="48" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.109375" style="2"/>
+    <col min="10" max="10" width="12.109375" style="2"/>
+    <col min="11" max="11" width="12.109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -7971,7 +7973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>

--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đăng_Quý_UTE_K19\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\dinh\Loz\Do_AN\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D10D1-2361-47FB-A4B9-4FA4F241A1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="672">
   <si>
     <t>nActi</t>
   </si>
@@ -1695,9 +1694,6 @@
     <t>Giá trị điện áp đo được là ?</t>
   </si>
   <si>
-    <t>fault13</t>
-  </si>
-  <si>
     <t>fault 15</t>
   </si>
   <si>
@@ -1864,17 +1860,8 @@
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti17.PNG</t>
   </si>
   <si>
-    <t>fault 21</t>
-  </si>
-  <si>
     <t>Giả sử dây nối tại D không bị ngắt. Dựa vào hiện tượng mạch vừa quan sát, hãy suy luận và dùng đồng hồ thang đo OHM để xác định vị trí lỗi.
 CHÚ Ý: Dùng đồng hồ thang đo OHM phải ngắt nguồn.</t>
-  </si>
-  <si>
-    <t>Đáp án D</t>
-  </si>
-  <si>
-    <t>nhu cc</t>
   </si>
   <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\1.PNG</t>
@@ -1949,10 +1936,6 @@
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\6.PNG</t>
   </si>
   <si>
-    <t>Cảm biến khối lượng không khí nạp kiểu màng nhiệt thế hệ thứ 6 về nguyên lý cơ bản giống thế hệ thứ 5 nhưng tấm film bán dẫn được thay thế bằng màng silicon và nhiều cảm biến nhiệt độ hơn nên lượng không khí nạp được tính toán chính xác hơn.
- Tín hiệu VG gửi về ECU ở dạng tần số.</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\7.PNG</t>
   </si>
   <si>
@@ -1978,9 +1961,6 @@
   </si>
   <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\13.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\14.PNG</t>
   </si>
   <si>
     <t>Cấu tạo gồm có:
@@ -1989,9 +1969,6 @@
  Ống chân không.
  Lọc không khí.
  Một IC.</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\15.PNG</t>
   </si>
   <si>
     <t>Khi cánh bướm ga mở nhỏ lượng không khi đi qua ít, độ chân không  trong đường ống nạp lớn và ngược lại.
@@ -2020,9 +1997,6 @@
       <t xml:space="preserve">
 Cảm biến lượng không khí nạp được sử dụng trên ô tô để kiểm tra khối lượng không khí nạp thực tế vào động cơ. Khi không khí nạp vào đạt 14,7kg thì ECU điều khiển lượng nhiên liệu phun là 1kg (A/F=14,7/1).</t>
     </r>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\16.PNG</t>
   </si>
   <si>
     <r>
@@ -2046,54 +2020,6 @@
  Được bố trí sau lọc gió, một phần lượng không khí nạp từ lọc gió được đưa vào vùng kiểm tra. 
 Trong vùng kiểm tra người ta bố trí một dây nhiệt bằng platin (có trị số nhiệt điện trở dương) cùng với nhiệt điện trở kiểm tra nhiệt độ của không khí (có trị số nhiệt điện trở âm) trong một mạch cầu có đặc điểm VB = VA để kiểm tra khối lượng không khí nạp. 
 Trong bộ đo gió người ta tích hợp một cảm biến nhiệt độ không khí nạp.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>II. Bộ đo gió kiểu màng nhiệt (Hot Film)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- Phần chính của cảm biến là một tấm film mỏng bán dẫn, trên đó người ta đặt hai cảm biến nhiệt độ ở phía trên và phía dưới và một bộ sấy.
- Phần trên tấm film được làm kín, phần dưới tiếp xúc với dòng khí nạp.
- Khi có không khí nạp vào động cơ, phần dưới tấm film được làm mát nên có dự chênh lệch nhiệt độ.
- Độ chênh lệch nhiệt độ được chuyển thành tín hiệu điện áp gửi về ECU.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>III. Bộ đo gió Karman siêu âm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- Khi không có dòng khí nạp, thời gian truyền sóng T từ bộ phát sóng siêu âm đi đến bộ tiếp nhận là cố định.
- Khi có không khí từ lọc gió qua bộ hướng dòng khí nạp có dạng hình tổ ong, tiếp tục chạm vào trụ tạo xoáy sẽ tạo ra các dòng xoáy Karman cùng và ngược chiều kim đồng hồ.</t>
     </r>
   </si>
   <si>
@@ -2210,27 +2136,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Khi động cơ hoạt động, không khí làm mát dây nhiệt làm cho điện trở của nó giảm nên điện áp VB gia tăng.
-Khi VB &gt; VA bộ so sánh hoạt động và điều khiển transistor mở cho dòng điện 12V từ relay chính cung cấp cho dây nhiệt.
-Lúc này dây nhiệt được nung nóng làm cho điện trở của nó tăng nên điện áp VB giảm. Khi VB =VA thì transistor đóng.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bằng cách đo điện áp tại điểm B, ECU xác định được lượng không khí nạp vào động cơ.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sơ đồ nguyên lý</t>
-  </si>
-  <si>
     <t>Khi rotor đứng yên, từ thông của nam châm vĩnh cửu qua cuộn dây không đổi nên sức điện động sinh ra trong cuộn dây bằng không.
 Khi rotor quay, khe hở từ thay đổi làm từ thông qua cuộn dây cũng thay đổi tạo ra một sức điện động xoay chiều trong cuộn dây, tín hiệu này được gửi về ECU.
 Khi tốc độ trục Delco càng nhanh, sức điện động sinh ra sẽ có biên độ và tần số càng lớn.</t>
@@ -2246,16 +2151,8 @@
 Từ đó, điện áp đầu ra chỉ phụ thuộc vào từ trường đi qua cảm biến. Do điện áp đầu ra rất nhỏ (30 mV cho 1 Gauss từ trường) nên phải được khuếch đại bằng Opamp.</t>
   </si>
   <si>
-    <t>Khi cánh rotor nằm chắn giữa IC Hall và nam châm, không có từ thông đi qua IC Hall, nên điện áp đầu ra bằng không.
-Khi cánh rotor không chắn, từ thông qua IC Hall sinh ra một điện áp ở đầu ra.</t>
-  </si>
-  <si>
     <t>Khi từ trường qua MRE thay đổi thì điện trở của nó thay đổi, người ta dùng một IC chuyển giá trị điện trở thành điện áp.
 Tín hiệu đầu ra là điện áp xoày chiều hình sin, được IC chuyển thành dạng xung vuông ở mức thấp khoảng 1V và mức cao khoảng 4V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khi trục Delco quay làm đĩa cảm biến quay. Sự chuyển động của cảm biến làm cho Transistor quang lúc nhận ánh sáng từ Led lúc không nhận ánh sáng.
-Khi contact máy On led sáng. </t>
   </si>
   <si>
     <r>
@@ -2338,29 +2235,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>II. Cảm biến Hall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Khi ta cho dòng điện đi qua một tấm bán dẫn mỏng (Phần tử Hall) và tín hiệu đầu ra vuông góc với phương của dòng điện I (Như hình dưới).
-Khi không có từ trường đi qua phần tử Hall, cường độ dòng điện I phân bố đều và không có điện áp ở tín hiệu đầu ra (V = 0).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>1 Bố trí trong bộ chia điện (Delco)</t>
     </r>
     <r>
@@ -2375,31 +2249,6 @@
   IC Hall.
   Nam châm vĩnh cửu.
   Các cánh của rotor cảm biến G và Ne.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2 Bố trí trong hệ thống đánh lửa trực tiếp và không bộ chia điện</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- Cấu tạo gồm có:  
-  IC có tích hợp MRE. 
-  Một nam châm vĩnh cửu.
-  Một rotor cảm biến.</t>
     </r>
   </si>
   <si>
@@ -2434,31 +2283,6 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I. Cảm biến nhiệt độ nước làm mát</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Cảm biến xác định mật độ của không khí khi nhiệt độ không khí thay đổi, nó kết hợp với bộ đo gió để xác định chính xác khối lượng không khí nạp vào động cơ.
- Chuẩn làm việc của cảm biến là 20°C. Khi nhiệt độ không khí lớn hơn 20°C, ECU điều khiển giảm lượng nhiên liệu phun và ngược lại.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2500,53 +2324,6 @@
  Ở động cơ Diesel, do áp suất nhiên liệu trong ống phân phối có thể đạt đến 200Mpa. Do vậy khi nhiệt độ vượt quá 125°C sẽ ảnh hưởng đến vấn đề bôi trơn và làm mát bơm cao áp cũng như các kim phun.
  Khi nhiệt độ nhiên liệu vượt quá mức qui định, ECU sẽ điều khiển giảm áp suất nhiên liệu trong ống phân phối.</t>
     </r>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\17.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\16.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\18.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\19.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\20.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\21.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\22.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\23.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\24.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\25.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\26.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\27.PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ở tốc độ cầm chừng:
-  Tiếp điểm E2 nối tiếp điểm IDL, điện áp tại cực IDL = 0V, 
-  PSW = 5V. ( Tín hiệu IDL còn kết hợp với tín hiệu Ne để cắt nhiên   liệu khi giảm tốc).
- Ở chế độ tải trung bình: ( Khi bướm ga xoay lớn hơn 8^0)
-   Tiếp điểm E2 tách tiếp điểm IDL, điện áp tại cực IDL = 5V, 
-  PSW = 5V.
- Ở chế độ đầy tải
-   Tiếp điểm E2 nối tiếp điểm đầy tải PSW, điện áp tại cực 
-IDL = 5V, PSW = 0V. </t>
   </si>
   <si>
     <t>Khi bướm ga mở, thông qua trục bướm ga sẽ làm cho các nam châm xoay theo làm vị trí của chúng thay đổi, mật độ từ thông qua IC Hall cũng thay đổi theo. 
@@ -2588,34 +2365,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>II. Cảm biến vị trí bướm ga kiểu tuyến tính có tiếp điểm IDL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- Từ ECU cấp nguồn 12V cho cảm biến ở cực IDL và 5V ở cực VC
- Hai con trượt chuyển động trên các điện trở
-    Ở vị trí cầm chừng, con trượt phía trên nối cực IDL và E2, VIDL= 5V
-    Khi bướm ga mở, hai con trượt xoay ngược chiều kim đồng hồ:
-      Con trượt phía trên không còn kết nối cực E2 nên VIDL= 10V.
-       Con trượt phía dưới di chuyển về phía cực VC nên điện áp cực VTA
-          tăng dần.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>III. Cảm biến vị trí bướm ga kiểu tuyến tính không có tiếp điểm IDL</t>
     </r>
     <r>
@@ -2631,15 +2380,39 @@
     </r>
   </si>
   <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\1.PNG</t>
+  </si>
+  <si>
+    <t>Khi động cơ hoạt động, không khí làm mát dây nhiệt làm cho điện trở của nó giảm nên điện áp VB gia tăng.
+Khi VB &gt; VA bộ so sánh hoạt động và điều khiển transistor mở cho dòng điện 12V từ relay chính cung cấp cho dây nhiệt.
+Lúc này dây nhiệt được nung nóng làm cho điện trở của nó tăng nên điện áp VB giảm. Khi VB =VA thì transistor đóng.
+Bằng cách đo điện áp tại điểm B, ECU xác định được lượng không khí nạp vào động cơ.
+Khi nhiệt độ không khí nạp thấp, điện trở nhiệt sẽ cao và điện áp tại điểm A sẽ thấp, như vậy khả năng làm mát dây nhiệt sẽ tốt hơn và transistor sẽ mở sớm.</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IV.   Cảm biến vị trí bướm ga kiểu hai cảm biến</t>
+      <t>II.  Bộ đo gió Karman siêu âm</t>
     </r>
     <r>
       <rPr>
@@ -2649,11 +2422,10 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
- Các động cơ sử dụng cảm biến bàn đạp ga, để tăng độ tin cậy người ta dùng hai cảm biến bướm ga.
- Hai cảm biến này có đặc tính khác nhau, mục đích để ECU nhận biết sự làm việc bất thường của cảm biến bằng cách so sánh đặc tính của các cảm biến này</t>
+ Không khí từ lọc gió qua bộ hướng dòng khí nạp có dạng hình tổ ong, chạm vào trụ tạo xoáy tạo ra các dòng xoáy Karman
+ Khi không có dòng khí nạp, thời gian truyền sóng T từ bộ phát sóng siêu âm đi đến bộ tiếp nhận là cố định.
+</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2662,7 +2434,313 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>V. Cảm biến vị trí bướm ga kiểu phần tử Hall</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Khi có không khí từ lọc gió qua bộ hướng dòng khí nạp có dạng hình tổ ong, tiếp tục chạm vào trụ tạo xoáy sẽ tạo ra các dòng xoáy Karman cùng và ngược chiều kim đồng hồ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bài 2: Cảm Biến G và Cảm Biến Ne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Cảm biến G: 
+ ECU dùng tín hiệu này để xác định vị trí piston số 1 tại ĐCT, từ đó xác định ĐCT của các xy lanh khác. Tín hiệu này dùng để điều khiển thời điểm bắt đầu phun nhiên liệu và dùng để xác định thời điểm đánh lửa chuẩn, từ đó ECU căn cứ vào tín hiệu của các cảm biến hiệu chỉnh để dịch chuyển thời điểm đánh lửa sớm hoặc phun dầu sớm để công suất động cơ đạt tối ưu.
+Cảm biến Ne: 
+ Còn gọi là cảm biến số vòng quay động cơ. Cảm biến này dùng để điều khiển góc đánh lửa sớm, lượng nhiên liệu phun, tốc độ cầm chừng, rờ le bơm nhiên liệu, hệ thống tuần hoàn khí xả (EGR) và nhiều hệ thống khác.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>II. Cảm biến Hall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi ta cho dòng điện đi qua một tấm bán dẫn mỏng (Phần tử Hall) và tín hiệu đầu ra vuông góc với phương của dòng điện I (Như hình bên).
+Khi không có từ trường đi qua phần tử Hall, cường độ dòng điện I phân bố đều và không có điện áp ở tín hiệu đầu ra (V = 0).</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi cánh rotor nằm chắn giữa IC Hall và nam châm, không có từ thông đi qua IC Hall, nên điện áp sinh ra từ IC Hall bằng không.
+Khi cánh rotor không chắn, từ thông qua IC Hall sinh ra một điện áp ở đầu ra.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 Bố trí trong hệ thống đánh lửa trực tiếp và không bộ chia điện</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Cấu tạo gồm có:  
+  IC có tích hợp MRE (IC hiệu ứng Hall).
+  Một nam châm vĩnh cửu.
+  Một rotor cảm biến.</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi trục Delco quay làm đĩa cảm biến quay. Sự chuyển động của cảm biến làm cho Transistor quang lúc nhận ánh sáng từ Led lúc không nhận ánh sáng.
+Khi contact máy On led sáng.
+Nếu transistor quang không nhận ánh sang nó đóng và transistor Tr1 đóng theo, điện áp tại cực Ne là 5V.
+Khi transistor quang nhận ánh sang nó mở, có dòng điện đi qua transistor quang điều khiển transistor Tr1 mở theo. Lúc này có dòng điện đi như sau: VC= 5V → Điện trở → Cực Ne → Tr1→ Mass và điện áp tại cực Ne là 0V.</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\12.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\7.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\8.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\9.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\10.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\11.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\13.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I. Cảm biến nhiệt độ không khí nạp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Cảm biến xác định mật độ của không khí khi nhiệt độ không khí thay đổi, nó kết hợp với bộ đo gió để xác định chính xác khối lượng không khí nạp vào động cơ.
+ Chuẩn làm việc của cảm biến là 20°C. Khi nhiệt độ không khí lớn hơn 20°C, ECU điều khiển giảm lượng nhiên liệu phun và ngược lại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 3: Cảm Biến Nhiệt Độ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Các cảm biến nhiệt độ có đặc điểm chung nó là một chất bán dẫn có trị số nhiệt điện trở âm (Khi nhiệt độ tang, điện trở giảm và ngược lại).
+Sơ đồ mạch điện của các cảm biến nhiệt độ là như nhau.
+Như vậy khi nhiệt độ cảm biến thay đổi, điện áp tín hiệu TH thay theo. 
+Bộ vi xử lý xác định tín hiệu nhiệt độ bằng cách đo điện áp tại cực TH.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\4.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 4: Cảm Biến Vị Trí Bướm Ga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Cảm biến vị trí bướm ga nằm trên thân bướm ga. Khi cảm biến chuyển góc mở bướm ga thì sẽ chuyển thành tín hiệu điện áp, ECU dung tín hiệu này để hiệu chỉnh lượng nhiên liệu phun, góc đánh lửa sớm, tốc độ cầm chừng.
+Cảm biến bướm ga có các kiểu sau:
+ Kiểu tiếp điểm
+ Kiểu tuyến tính
+ Kiểu phần tử Hall</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở tốc độ cầm chừng:
+  Tiếp điểm E2 nối tiếp điểm IDL, điện áp tại cực IDL = 0V, 
+  PSW = 5V. ( Tín hiệu IDL còn kết hợp với tín hiệu Ne để cắt nhiên liệu khi giảm tốc).
+ Ở chế độ tải trung bình: ( Khi bướm ga xoay lớn hơn 8°)
+   Tiếp điểm E2 tách tiếp điểm IDL, điện áp tại cực IDL = 5V, 
+  PSW = 5V.
+ Ở chế độ đầy tải
+   Tiếp điểm E2 nối tiếp điểm đầy tải PSW, điện áp tại cực 
+IDL = 5V, PSW = 0V. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>II. Cảm biến vị trí bướm ga kiểu tuyến tính có tiếp điểm IDL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Từ ECU cấp nguồn 12V cho cảm biến ở cực IDL và 5V ở cực VC
+ Hai con trượt chuyển động trên các điện trở
+    Ở vị trí cầm chừng, con trượt phía trên nối cực IDL và E2, V</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IDL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 0V
+    Khi bướm ga mở, hai con trượt xoay ngược chiều kim đồng hồ:
+      Con trượt phía trên không còn kết nối cực E2 nên V</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">IDL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 10V.
+       Con trượt phía dưới di chuyển về phía cực VC nên điện áp cực VTA
+          tăng dần.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IV. Cảm biến vị trí bướm ga kiểu phần tử Hall</t>
     </r>
     <r>
       <rPr>
@@ -2679,6 +2757,15 @@
     </r>
   </si>
   <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\7.PNG</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2687,7 +2774,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>I. Cảm biến bàn đạp ga kiểu tuyến tính</t>
+      <t xml:space="preserve">Bài 5: Cảm Biến Bàn Đạp Ga
+</t>
     </r>
     <r>
       <rPr>
@@ -2696,9 +2784,10 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">
- Cảm biến bàn đạp ga kiểu tuyến tính thì thường được bố trí ở trên thân bướm ga hoặc trên bàn đạp ga.
- Khác với cảm biến bướm ga, cảm biến bàn đạp ga sử dụng 2 nguồn 5V riêng biệt, nhưng nguyên lý tương tự cảm biến vị trí bướm ga kiểu tuyến tính.</t>
+      <t>Các động cơ ngày nay đều sử dụng cảm biến bàn đạp ga. Cảm biến bàn đạp ga, motor điều khiển bướm ga và cảm biến vị trí bướm ga là một cụm, được gọi là hệ thống điều khiển bướm ga thông minh.
+Cảm biến bàn đạp ga có các kiểu sau:
+ Kiểu tuyến tính
+ Kiểu phần tử Hall</t>
     </r>
   </si>
   <si>
@@ -2710,7 +2799,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>II. Cảm biến bàn đạp ga kiểu phần tử Hall</t>
+      <t xml:space="preserve">I.  Cảm biến bàn đạp ga kiểu tuyến tính
+</t>
     </r>
     <r>
       <rPr>
@@ -2719,42 +2809,46 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">
- Nguyên lý dựa và hiệu ứng Hall. 
+      <t xml:space="preserve"> Cảm biến bàn đạp ga kiểu tuyến tính thì thường được bố trí ở trên thân bướm ga hoặc trên bàn đạp ga.
+ Khác với cảm biến bướm ga, cảm biến bàn đạp ga sử dụng 2 nguồn 5V riêng biệt, nhưng nguyên lý tương tự cảm biến vị trí bướm ga kiểu tuyến tính.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">II.  Cảm biến bàn đạp ga kiểu phần tử Hall
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nguyên lý dựa và hiệu ứng Hall. 
  Trong cảm biến bố trí hai IC Hall cố định, 2 nguồn cung cấp 5V VCPA và  VCP2. 
  Khi đạp ga qua trục truyền động làm cho các nam châm quay xung quanh  hai IC Hall, từ thông thay đổi, tín hiệu điện áp VPA và VPA2 sẽ thay đổi  và tín hiệu này sẽ được gửi về ECU để xác định góc mở bàn đạp ga.</t>
     </r>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\1.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\1.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\1.PNG</t>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\3.PNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2856,6 +2950,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2925,7 +3027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2990,8 +3092,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3308,11 +3415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3322,9 +3429,7 @@
     <col min="4" max="4" width="255.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="12.109375" style="2"/>
     <col min="9" max="9" width="48" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="2"/>
-    <col min="11" max="11" width="12.109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="12.109375" style="2"/>
+    <col min="10" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -3361,9 +3466,7 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>594</v>
-      </c>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="207.6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -3373,10 +3476,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -3397,9 +3500,6 @@
         <v>14</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3411,10 +3511,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -3435,9 +3535,6 @@
         <v>14</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3449,10 +3546,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -3475,11 +3572,8 @@
       <c r="K4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -3487,10 +3581,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -3513,11 +3607,8 @@
       <c r="K5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -3525,10 +3616,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>627</v>
+        <v>597</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>638</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -3551,11 +3642,8 @@
       <c r="K6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -3563,16 +3651,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>14</v>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>14</v>
@@ -3589,11 +3677,8 @@
       <c r="K7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
@@ -3601,10 +3686,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -3627,11 +3712,8 @@
       <c r="K8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
@@ -3639,15 +3721,15 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -3665,11 +3747,8 @@
       <c r="K9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
@@ -3677,16 +3756,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>14</v>
@@ -3703,11 +3782,8 @@
       <c r="K10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
@@ -3715,10 +3791,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -3741,11 +3817,8 @@
       <c r="K11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -3753,15 +3826,15 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -3779,14 +3852,8 @@
       <c r="K12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -3794,10 +3861,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -3818,12 +3885,6 @@
         <v>14</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="M13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3835,10 +3896,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -3861,168 +3922,72 @@
       <c r="K14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>625</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4077,11 +4042,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -4117,10 +4082,10 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="37"/>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -4156,10 +4121,10 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="37"/>
+      <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -4195,10 +4160,10 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="37"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -5273,13 +5238,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
-    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -5287,7 +5252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6425,30 +6390,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0900-00000C000000}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0900-00000D000000}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0900-000010000000}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0900-000011000000}"/>
-    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png" xr:uid="{00000000-0004-0000-0900-000012000000}"/>
-    <hyperlink ref="C30" r:id="rId20" xr:uid="{00000000-0004-0000-0900-000013000000}"/>
-    <hyperlink ref="C31" r:id="rId21" xr:uid="{00000000-0004-0000-0900-000014000000}"/>
-    <hyperlink ref="C32" r:id="rId22" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
-    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-0900-000016000000}"/>
-    <hyperlink ref="C2" r:id="rId24" xr:uid="{00000000-0004-0000-0900-000017000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C18" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14"/>
+    <hyperlink ref="C20" r:id="rId15"/>
+    <hyperlink ref="C21" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
+    <hyperlink ref="C24" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png"/>
+    <hyperlink ref="C30" r:id="rId20"/>
+    <hyperlink ref="C31" r:id="rId21"/>
+    <hyperlink ref="C32" r:id="rId22"/>
+    <hyperlink ref="C33" r:id="rId23"/>
+    <hyperlink ref="C2" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -6456,7 +6421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7156,30 +7121,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-0A00-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-0A00-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0A00-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0A00-00000A000000}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0A00-00000B000000}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0A00-00000C000000}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0A00-00000D000000}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0A00-00000E000000}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0A00-00000F000000}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0A00-000010000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
+    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7945,24 +7910,24 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0B00-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0B00-00000A000000}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0B00-00000B000000}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0B00-00000C000000}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0B00-00000E000000}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0B00-00000F000000}"/>
-    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0B00-000010000000}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0B00-000011000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B23" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -7970,7 +7935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8476,24 +8441,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9314,30 +9279,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0E00-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0E00-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0E00-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0E00-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0E00-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0E00-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0E00-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0E00-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0E00-00000F000000}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0E00-000010000000}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0E00-000011000000}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0E00-000012000000}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0E00-000013000000}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0E00-000014000000}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0E00-000015000000}"/>
-    <hyperlink ref="B21" r:id="rId23" xr:uid="{00000000-0004-0000-0E00-000016000000}"/>
-    <hyperlink ref="B18" r:id="rId24" xr:uid="{00000000-0004-0000-0E00-000017000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B21" r:id="rId23"/>
+    <hyperlink ref="B18" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -9345,11 +9310,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:M14"/>
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9394,12 +9359,10 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:13" ht="180" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -9410,7 +9373,7 @@
         <v>644</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -9433,11 +9396,8 @@
       <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -9445,15 +9405,15 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
@@ -9471,11 +9431,8 @@
       <c r="K3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -9483,10 +9440,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>635</v>
+        <v>647</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>616</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -9509,11 +9466,8 @@
       <c r="K4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -9521,10 +9475,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>636</v>
+        <v>648</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>621</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -9547,11 +9501,8 @@
       <c r="K5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -9559,15 +9510,15 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -9583,9 +9534,6 @@
         <v>14</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9597,15 +9545,15 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
@@ -9623,11 +9571,8 @@
       <c r="K7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
@@ -9635,10 +9580,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -9661,11 +9606,8 @@
       <c r="K8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
@@ -9673,10 +9615,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -9699,11 +9641,8 @@
       <c r="K9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
@@ -9711,10 +9650,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -9737,11 +9676,8 @@
       <c r="K10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
@@ -9749,10 +9685,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -9775,11 +9711,8 @@
       <c r="K11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -9787,15 +9720,15 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -9813,14 +9746,8 @@
       <c r="K12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -9828,15 +9755,15 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -9854,55 +9781,75 @@
       <c r="K13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:13" ht="111" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9948,7 +9895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -9956,10 +9903,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>664</v>
+        <v>629</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -9983,42 +9930,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="55.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -10026,10 +9973,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -10053,23 +10000,45 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="4"/>
       <c r="D6" s="18"/>
@@ -10084,20 +10053,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:P9"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10143,7 +10114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -10151,10 +10122,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10178,42 +10149,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="152.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>655</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="193.8" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -10221,12 +10192,12 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>669</v>
+        <v>634</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>658</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -10241,27 +10212,27 @@
       <c r="I4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:11" ht="198.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="E5" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="18" t="s">
@@ -10270,13 +10241,13 @@
       <c r="G5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="18" t="s">
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="18" t="s">
@@ -10284,17 +10255,17 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -10305,10 +10276,10 @@
       <c r="G6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="18" t="s">
@@ -10326,10 +10297,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -10361,10 +10332,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -10388,16 +10359,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -10409,24 +10380,24 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10472,7 +10443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="111" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="180" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -10480,10 +10451,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -10507,7 +10478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="111" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -10515,63 +10486,89 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="D4" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="4"/>
-      <c r="D4"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10657,10 +10654,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -10692,25 +10689,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D4" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>543</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>544</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
@@ -10727,25 +10724,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="18" t="s">
         <v>543</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>544</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -10762,25 +10759,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>543</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>544</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -10797,10 +10794,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -10832,25 +10829,25 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D8" t="s">
+        <v>546</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="H8" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="I8" s="18" t="s">
         <v>550</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>551</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
@@ -10859,7 +10856,7 @@
         <v>322</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -10869,13 +10866,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources\mach trang.jpg"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -10883,7 +10880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -10938,10 +10935,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D2" t="s">
         <v>574</v>
-      </c>
-      <c r="D2" t="s">
-        <v>575</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10973,7 +10970,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>534</v>
@@ -10982,16 +10979,16 @@
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>554</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>555</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>13</v>
@@ -11043,25 +11040,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>12</v>
@@ -11078,16 +11075,16 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>561</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>562</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>359</v>
@@ -11113,16 +11110,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>359</v>
@@ -11148,16 +11145,16 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>359</v>
@@ -11183,10 +11180,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
@@ -11195,10 +11192,10 @@
         <v>536</v>
       </c>
       <c r="G9" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>566</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>567</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>276</v>
@@ -11218,10 +11215,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>14</v>
@@ -11230,10 +11227,10 @@
         <v>536</v>
       </c>
       <c r="G10" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>566</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>567</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>276</v>
@@ -11253,10 +11250,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -11323,10 +11320,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -11358,10 +11355,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -11393,10 +11390,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>14</v>
@@ -11428,10 +11425,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>14</v>
@@ -11463,10 +11460,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>14</v>
@@ -11498,10 +11495,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
@@ -11546,23 +11543,23 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources\mach trang.jpg"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11" display="\\Resources\mach trang.jpg"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
@@ -11570,11 +11567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -12242,16 +12239,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
-    <hyperlink ref="B14" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
-    <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
-    <hyperlink ref="B16" r:id="rId8" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
-    <hyperlink ref="B18" r:id="rId10" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B14" r:id="rId6"/>
+    <hyperlink ref="B15" r:id="rId7"/>
+    <hyperlink ref="B16" r:id="rId8"/>
+    <hyperlink ref="B17" r:id="rId9"/>
+    <hyperlink ref="B18" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -12259,7 +12256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\dinh\Loz\Do_AN\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đăng_Quý_UTE_K19\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E374ED30-F9DF-4A90-80B1-793AEC5C7FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="673">
   <si>
     <t>nActi</t>
   </si>
@@ -2843,11 +2844,14 @@
   <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\3.PNG</t>
   </si>
+  <si>
+    <t>ENDEND</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3092,13 +3096,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3415,7 +3419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
@@ -3466,7 +3470,7 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="207.6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -3618,7 +3622,7 @@
       <c r="C6" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>638</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -3967,19 +3971,19 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -3987,7 +3991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4042,11 +4046,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -4082,10 +4086,10 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="36"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -4121,10 +4125,10 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="36"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -4160,10 +4164,10 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="36"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -5238,13 +5242,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -5252,7 +5256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6390,30 +6394,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C12" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C18" r:id="rId13"/>
-    <hyperlink ref="C19" r:id="rId14"/>
-    <hyperlink ref="C20" r:id="rId15"/>
-    <hyperlink ref="C21" r:id="rId16"/>
-    <hyperlink ref="C22" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
-    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png"/>
-    <hyperlink ref="C30" r:id="rId20"/>
-    <hyperlink ref="C31" r:id="rId21"/>
-    <hyperlink ref="C32" r:id="rId22"/>
-    <hyperlink ref="C33" r:id="rId23"/>
-    <hyperlink ref="C2" r:id="rId24"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0A00-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0A00-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0A00-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0A00-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0A00-00000B000000}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0A00-00000C000000}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0A00-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0A00-00000E000000}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0A00-00000F000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0A00-000010000000}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0A00-000011000000}"/>
+    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png" xr:uid="{00000000-0004-0000-0A00-000012000000}"/>
+    <hyperlink ref="C30" r:id="rId20" xr:uid="{00000000-0004-0000-0A00-000013000000}"/>
+    <hyperlink ref="C31" r:id="rId21" xr:uid="{00000000-0004-0000-0A00-000014000000}"/>
+    <hyperlink ref="C32" r:id="rId22" xr:uid="{00000000-0004-0000-0A00-000015000000}"/>
+    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-0A00-000016000000}"/>
+    <hyperlink ref="C2" r:id="rId24" xr:uid="{00000000-0004-0000-0A00-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -6421,7 +6425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7121,30 +7125,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
-    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12"/>
-    <hyperlink ref="B17" r:id="rId13"/>
-    <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B19" r:id="rId15"/>
-    <hyperlink ref="B20" r:id="rId16"/>
-    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-0B00-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0B00-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0B00-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0B00-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0B00-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0B00-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0B00-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7910,24 +7914,24 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B23" r:id="rId18"/>
+    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0C00-00000A000000}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0C00-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0C00-00000C000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0C00-00000D000000}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0C00-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0C00-00000F000000}"/>
+    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0C00-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0C00-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -7935,7 +7939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8441,24 +8445,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9279,30 +9283,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B22" r:id="rId19"/>
-    <hyperlink ref="B23" r:id="rId20"/>
-    <hyperlink ref="B24" r:id="rId21"/>
-    <hyperlink ref="B25" r:id="rId22"/>
-    <hyperlink ref="B21" r:id="rId23"/>
-    <hyperlink ref="B18" r:id="rId24"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0E00-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0E00-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0E00-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0E00-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0E00-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0E00-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0E00-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0E00-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0E00-00000F000000}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0E00-000010000000}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0E00-000011000000}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0E00-000012000000}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0E00-000013000000}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0E00-000014000000}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0E00-000015000000}"/>
+    <hyperlink ref="B21" r:id="rId23" xr:uid="{00000000-0004-0000-0E00-000016000000}"/>
+    <hyperlink ref="B18" r:id="rId24" xr:uid="{00000000-0004-0000-0E00-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -9310,7 +9314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -9359,8 +9363,8 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="180" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -9825,19 +9829,19 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -9845,7 +9849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
@@ -10053,10 +10057,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -10064,7 +10068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
@@ -10380,24 +10384,24 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10552,19 +10556,22 @@
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>672</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -10866,13 +10873,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources\mach trang.jpg"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -10880,10 +10887,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -11543,23 +11550,23 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources\mach trang.jpg"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11" display="\\Resources\mach trang.jpg"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
@@ -11567,7 +11574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12239,16 +12246,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B14" r:id="rId6"/>
-    <hyperlink ref="B15" r:id="rId7"/>
-    <hyperlink ref="B16" r:id="rId8"/>
-    <hyperlink ref="B17" r:id="rId9"/>
-    <hyperlink ref="B18" r:id="rId10"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="B14" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="B16" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="B17" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -12256,7 +12263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\thay thế\Resources\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\30-12\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="554">
   <si>
     <t>nActi</t>
   </si>
@@ -1531,6 +1531,30 @@
   </si>
   <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\7.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\8.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\9.PNG</t>
   </si>
   <si>
     <r>
@@ -1541,7 +1565,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>A. Các cảm biến chính:</t>
+      <t>III. Cảm biến vị trí bướm ga kiểu tuyến tính không có tiếp điểm IDL</t>
     </r>
     <r>
       <rPr>
@@ -1551,21 +1575,108 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
- Còn gọi là các thông số cơ bản:
-  1. Cảm biến lưu lượng không khí nạp
-  2. Cảm biến Ne
-  3. Cảm biến G
-</t>
+ Ở kiểu này cực IDL được bỏ đi.
+ ECU xác định các chế độ tải qua cực VTA, ở tốc độ cầm chừng điện áp  cực VTA = 0,45 – 0,65V.</t>
     </r>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\1.PNG</t>
+  </si>
+  <si>
+    <t>Khi cánh rotor nằm chắn giữa IC Hall và nam châm, không có từ thông đi qua IC Hall, nên điện áp sinh ra từ IC Hall bằng không.
+Khi cánh rotor không chắn, từ thông qua IC Hall sinh ra một điện áp ở đầu ra.</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\12.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\7.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\8.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\9.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\10.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\11.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\13.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\4.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở tốc độ cầm chừng:
+  Tiếp điểm E2 nối tiếp điểm IDL, điện áp tại cực IDL = 0V, 
+  PSW = 5V. ( Tín hiệu IDL còn kết hợp với tín hiệu Ne để cắt nhiên liệu khi giảm tốc).
+ Ở chế độ tải trung bình: ( Khi bướm ga xoay lớn hơn 8°)
+   Tiếp điểm E2 tách tiếp điểm IDL, điện áp tại cực IDL = 5V, 
+  PSW = 5V.
+ Ở chế độ đầy tải
+   Tiếp điểm E2 nối tiếp điểm đầy tải PSW, điện áp tại cực 
+IDL = 5V, PSW = 0V. </t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\2.PNG</t>
+  </si>
+  <si>
+    <t>ENDEND</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>B. Các cảm biến hiệu chỉnh:</t>
+      <t xml:space="preserve">Bài 1: Cảm Biến Lưu Lượng Không Khí Nạp
+I. Bộ đo gió kiểu dây nhiệt (Hot Wire)
+       </t>
     </r>
     <r>
       <rPr>
@@ -1574,84 +1685,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">
- 4.  Cảm biến nhiệt độ nước làm mát
- 5.  Cảm biến nhiệt độ không khí nạp
- 6.  Cảm biến vị trí bướm ga
- 7.  Cảm biến vị trí bàn đạp ga
- 8.  Cảm biến oxy
- 9.  Cảm biến A/F
-10. Cảm biến kích nổ
-11. Cảm biến tốc độ xe
-12. Cảm biến áp suất nạp</t>
+      <t>Được bố trí sau lọc gió, một phần lượng không khí nạp từ lọc gió được đưa vào vùng kiểm tra. 
+       Trong vùng kiểm tra người ta bố trí một dây nhiệt bằng platin (có trị số nhiệt điện trở dương) cùng với nhiệt điện trở kiểm tra nhiệt độ của không khí (có trị số nhiệt điện trở âm) trong một mạch cầu có đặc điểm VB = VA để kiểm tra khối lượng không khí nạp. 
+       Trong bộ đo gió người ta tích hợp một cảm biến nhiệt độ không khí nạp.</t>
     </r>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\6.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\7.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\8.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\9.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\10.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\11.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\12.PNG</t>
-  </si>
-  <si>
-    <t>Hợp lực của dòng khí tác dụng lên cánh cảm biến, làm cho nó xoay một góc
-Lúc này contact điều khiển relay bơm xăng sẽ chuyển từ OFF sang ON.
-Vị trí của tấm cảm biến được xác định bởi sự cân bằng của hợp lực dòng khí và lò xo xoắn bố trí ở mạch điện cảm biến.
-Cánh cảm biến thông qua trục truyền động làm cho con trượt dịch chuyển trên điện trở. Từ đó, điện thế kế xác định điện áp VS và gửi về ECU.</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\13.PNG</t>
-  </si>
-  <si>
-    <t>Cấu tạo gồm có:
- Chip silicon.
- Buồng chân không chuẩn.
- Ống chân không.
- Lọc không khí.
- Một IC.</t>
-  </si>
-  <si>
-    <t>Khi cánh bướm ga mở nhỏ lượng không khi đi qua ít, độ chân không  trong đường ống nạp lớn và ngược lại.
-Chân không trong đường ống nạp sẽ tác động lên chip Silicon.
-Lúc đó, áp suất trong đường ống nạp thay đổi làm cho chip Silicon biến dạng và làm thay đổi điện trở của chip.
-IC chuyển tín hiệu điện trở thành tín hiệu điện áp gửi về ECU.</t>
+    <t>Khi động cơ hoạt động, không khí làm mát dây nhiệt làm cho điện trở của nó giảm nên điện áp VB gia tăng.
+Khi VB &gt; VA bộ so sánh hoạt động và điều khiển transistor mở cho dòng điện 12V từ relay chính cung cấp cho dây nhiệt
+Lúc này dây nhiệt được nung nóng làm cho điện trở của nó tăng nên điện áp VB giảm. Khi VB =VA thì transistor đóng.
+Khi nhiệt độ không khí nạp thấp, điện trở nhiệt sẽ cao và điện áp tại điểm A sẽ thấp, như vậy khả năng làm mát dây nhiệt sẽ tốt hơn và transistor sẽ mở sớm.
+Bằng cách đo điện áp tại điểm B, ECU xác định được lượng không khí nạp vào động cơ.</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bài 1: Cảm Biến Lưu Lượng Không Khí Nạp</t>
+      <t xml:space="preserve">II. Bộ đo gió Karman siêu âm
+</t>
     </r>
     <r>
       <rPr>
@@ -1660,39 +1709,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">
-Cảm biến lượng không khí nạp được sử dụng trên ô tô để kiểm tra khối lượng không khí nạp thực tế vào động cơ. Khi không khí nạp vào đạt 14,7kg thì ECU điều khiển lượng nhiên liệu phun là 1kg (A/F=14,7/1).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>I. Bộ đo gió kiểu dây nhiệt (Hot Wire)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- Được bố trí sau lọc gió, một phần lượng không khí nạp từ lọc gió được đưa vào vùng kiểm tra. 
-Trong vùng kiểm tra người ta bố trí một dây nhiệt bằng platin (có trị số nhiệt điện trở dương) cùng với nhiệt điện trở kiểm tra nhiệt độ của không khí (có trị số nhiệt điện trở âm) trong một mạch cầu có đặc điểm VB = VA để kiểm tra khối lượng không khí nạp. 
-Trong bộ đo gió người ta tích hợp một cảm biến nhiệt độ không khí nạp.</t>
+      <t>Khi có không khí từ lọc gió qua bộ hướng dòng khí nạp có dạng hình tổ ong, tiếp tục chạm vào trụ tạo xoáy sẽ tạo ra các dòng xoáy Karman cùng và ngược chiều kim đồng hồ.
+Khi không có dòng khí nạp, thời gian truyền sóng T từ bộ phát sóng siêu âm đi đến bộ tiếp nhận là cố định.</t>
     </r>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Các dòng xoáy cùng chiều kim đồng hồ đi qua giữa bộ phát sóng và bộ tiếp nhận sẽ tạo ra thời gian truyền sóng T1 nhanh hơn T.
-  Các dòng xoáy ngược chiều kim đồng hồ đi qua giữa bộ phát sóng và bộ tiếp nhận sẽ tạo ra thời gian truyền sóng T2 chậm hơn T.
- Các tín hiệu này sẽ được chuyển thành tín hiệu xung vuông và gửi đến ECU để xác định lượng không khí nạp.
+Các dòng xoáy ngược chiều kim đồng hồ đi qua giữa bộ phát sóng và bộ tiếp nhận sẽ tạo ra thời gian truyền sóng T2 chậm hơn T.
+Các tín hiệu này sẽ được chuyển thành tín hiệu xung vuông và gửi đến ECU để xác định lượng không khí nạp.
 </t>
     </r>
     <r>
@@ -1703,8 +1728,35 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Trong bộ đo gió có bố trí cảm biến áp suất môi trường và cảm biến nhiệt độ không khí nạp.</t>
+      <t>Trong bộ đo gió có bố trí cảm biến áp suất môi trường và cảm biến 
+nhiệt độ không khí nạp.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">III.   Bộ đo gió van trượt
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cấu trúc gồm
+  Một cánh cảm biến đặt trên đường di chuyển của không khí.
+  Một cánh cân bằng giúp ổn định chuyển động và giới hạn góc mở tối đa của cánh cảm biến.
+  Một con trượt và điện thế kế.
+  Contact điều khiển relay bơm xăng.
+  Vít điều chỉnh hỗn hợp cầm chừng.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hợp lực của dòng khí tác dụng lên cánh cảm biến, làm cho nó xoay một góc
+Lúc này contact điều khiển relay bơm xăng sẽ chuyển từ OFF sang ON.
+Vị trí của tấm cảm biến được xác định bởi sự cân bằng của hợp lực dòng khí và lò xo xoắn bố trí ở mạch điện cảm biến.
+Cánh cảm biến thông qua trục truyền động làm cho con trượt dịch chuyển trên điện trở. Từ đó, điện thế kế xác định điện áp VS và gửi về ECU.</t>
   </si>
   <si>
     <r>
@@ -1715,78 +1767,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>IV. Bộ đo gió Karman quang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Cấu trúc gồm
- Một trụ tạo xoáy đặt ở giữa.
-  Một tấm màng mỏng bằng kim loại gọi là tấm gương.
-  Phía trên là bộ quang học gồm một led và một transistor quang.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dòng xoáy Karman tác động vào bề mặt dưới của gương làm cho gương dao động.
- Transistor sẽ ON khi nhận sự phản xạ ánh sang từ LED qua gương.
- Sự ON và OFF của transistor quang tạo ra các xung điện có tần số f.
- Từ đó ECU xác định lượng không khí nạp vào động cơ.
+      <t xml:space="preserve">IV.   Cảm biến chân không (MAP)
 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong bộ đo gió có bố trí cảm biến áp suất môi trường và cảm biến nhiệt độ không khí nạp.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>V. Bộ đo gió van trượt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Cấu trúc gồm
- Một cánh cảm biến đặt trên đường di chuyển của không khí.
-  Một cánh cân bằng giúp ổn định chuyển động và giới hạn góc mở   tối đa của cánh cảm biến.
-  Một con trượt và điện thế kế.
-   Contact điều khiển relay bơm xăng.
-  Vít điều chỉnh hỗn hợp cầm chừng.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VI. Cảm biến chân không (MAP)</t>
     </r>
     <r>
       <rPr>
@@ -1797,8 +1779,45 @@
       </rPr>
       <t xml:space="preserve">
 MAP Sensor có hai kiểu:
-Tín hiệu đầu ra kiểu tương tự: tín hiệu gửi về ECU dưới dạng điện áp, điện áp của nó tỉ lệ thuận với tải của động cơ.
-Tín hiệu đầu ra kỹ thuật số: được sử dụng rộng rãi ở hãng Ford,  tín hiệu gửi về ECU là kiểu xung vuông ở dạng tần số.</t>
+- Tín hiệu đầu ra kiểu tương tự: tín hiệu gửi về ECU dưới dạng điện áp, điện áp của nó tỉ lệ thuận với tải của động cơ.
+- Tín hiệu đầu ra kỹ thuật số: được sử dụng rộng rãi ở hãng Ford, tín hiệu gửi về ECU là kiểu xung vuông ở dạng tần số.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cấu tạo gồm có:
+    Chip silicon.
+    Buồng chân không chuẩn.
+    Ống chân không.
+    Lọc không khí.
+    Một IC.</t>
+  </si>
+  <si>
+    <t>Khi cánh bướm ga mở nhỏ lượng không khi đi qua ít, độ chân không  trong đường ống nạp lớn và ngược lại.
+Chân không trong đường ống nạp sẽ tác động lên chip Silicon.
+Lúc đó, áp suất trong đường ống nạp thay đổi làm cho chip Silicon biến dạng và làm thay đổi điện trở của chip.
+IC chuyển tín hiệu điện trở thành tín hiệu điện áp gửi về ECU.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bài 2: Cảm Biến G và Cảm Biến Ne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Cảm biến G: ECU dùng tín hiệu này để xác định vị trí piston số 1 tại ĐCT, từ đó xác định ĐCT của các xy lanh khác. Tín hiệu này dùng để điều khiển thời điểm bắt đầu phun nhiên liệu và dùng để xác định thời điểm đánh lửa chuẩn, từ đó ECU căn cứ vào tín hiệu của các cảm biến hiệu chỉnh để dịch chuyển thời điểm đánh lửa sớm hoặc phun dầu sớm để công suất động cơ đạt tối ưu.
+- Cảm biến Ne: Còn gọi là cảm biến số vòng quay động cơ. Cảm biến này dùng để điều khiển góc đánh lửa sớm, lượng nhiên liệu phun, tốc độ cầm chừng, rờ le bơm nhiên liệu, hệ thống tuần hoàn khí xả (EGR) và nhiều hệ thống khác.</t>
     </r>
   </si>
   <si>
@@ -1807,18 +1826,40 @@
 Khi tốc độ trục Delco càng nhanh, sức điện động sinh ra sẽ có biên độ và tần số càng lớn.</t>
   </si>
   <si>
-    <t>Khi cho từ thông của một nam châm vĩnh cửu qua vuông góc với phần tử Hall.
-Dưới tác dụng của lực Lorentz làm cho dòng điện bị nhiễu loạn và dẫn đến sự chêch lệch điện áp ở tín hiệu đầu ra. 
-Điện áp này gọi là điện áp Hall, tỉ lệ thuận với vectơ cường độ dòng điện I và vectơ từ trường B.</t>
-  </si>
-  <si>
-    <t>Trên thực tế, cảm biến Hall là một IC Hall sử dụng 2 hoặc 4 phần tử Hall.
-Nguồn điện cấp cho IC Hall qua bộ ổn áp để đảm bảo nguồn cung cấp vào IC Hall là không đổi.
-Từ đó, điện áp đầu ra chỉ phụ thuộc vào từ trường đi qua cảm biến. Do điện áp đầu ra rất nhỏ (30 mV cho 1 Gauss từ trường) nên phải được khuếch đại bằng Opamp.</t>
-  </si>
-  <si>
-    <t>Khi từ trường qua MRE thay đổi thì điện trở của nó thay đổi, người ta dùng một IC chuyển giá trị điện trở thành điện áp.
-Tín hiệu đầu ra là điện áp xoày chiều hình sin, được IC chuyển thành dạng xung vuông ở mức thấp khoảng 1V và mức cao khoảng 4V.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. Bố trí trong hệ thống đánh lửa trực tiếp và không bộ chia điện</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Có thiết kế nhỏ gọn hơn kiểu dùng bộ chia điện. Cấu tạo gồm có: 
+Một rotor cảm biến.
+Một cảm biến (gồm một cuộn dây và một nam châm).
+Khi rotor quay khe hở từ thay đổi nên từ thông qua cuộn dây cũng thay  đổi tạo ra một sức điện động xoay chiều gửi về ECU.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1849,7 +1890,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1 Bố trí trong bộ chia điện (Delco)</t>
+      <t>1. Bố trí trong bộ chia điện (Delco)</t>
     </r>
     <r>
       <rPr>
@@ -1862,10 +1903,164 @@
  Cấu tạo gồm có:
   Một khung từ.
   Một đầu khung từ lắp một nam châm vĩnh cửu, đầu còn lại lắp một cuộn dây.
-  Một rotor cảm biến lắp trên trục cảu delco.</t>
+  Một rotor cảm biến lắp trên trục của delco.</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">II. Cảm biến Hall
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Khi ta cho dòng điện đi qua một tấm bán dẫn mỏng (Phần tử Hall) và tín hiệu đầu ra vuông góc với phương của dòng điện I (Như hình bên).
+Khi không có từ trường đi qua phần tử Hall, cường độ dòng điện I phân bố đều và không có điện áp ở tín hiệu đầu ra (V = 0).</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi cho từ thông của một nam châm vĩnh cửu qua vuông góc với phần tử Hall.
+Dưới tác dụng của lực Lorentz làm cho dòng điện bị nhiễu loạn và dẫn đến sự chêch lệch điện áp ở tín hiệu đầu ra. 
+Điện áp này gọi là điện áp Hall, tỉ lệ thuận với vectơ cường độ dòng điện I và vectơ từ trường B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Trên thực tế, cảm biến Hall là một IC Hall sử dụng 2 hoặc 4 phần tử Hall.
+   Nguồn điện cấp cho IC Hall qua bộ ổn áp để đảm bảo nguồn cung cấp vào IC Hall là không đổi.
+   Từ đó, điện áp đầu ra chỉ phụ thuộc vào từ trường đi qua cảm biến. Do điện áp đầu ra rất nhỏ (30 mV cho 1 Gauss từ trường) nên phải được khuếch đại bằng Opamp.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 Bố trí trong hệ thống đánh lửa trực tiếp và không bộ chia điện</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Cấu tạo gồm có:  
+    IC có tích hợp MRE (IC hiệu ứng Hall).
+    Một nam châm vĩnh cửu.
+    Một rotor cảm biến.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1. Bố trí trong bộ chia điện (Delco)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Cấu tạo gồm có:
+   IC Hall.
+   Nam châm vĩnh cửu.
+   Các cánh của rotor cảm biến G và Ne.</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi từ trường qua MRE thay đổi thì điện trở của nó thay đổi, người ta dùng một IC chuyển giá trị điện trở thành điện áp.
+Tín hiệu đầu ra là điện áp xoày chiều hình sin, được IC chuyển thành dạng xung vuông ở mức thấp khoảng 1V và mức cao khoảng 4V.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>III. Cảm biến quang
+C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ảm biến này được bố trí trong hệ thống đánh lửa dung bộ chia điện.
+Cấu tạo gồm có: 
++ Hai cặp quang học: hai Led và hai Transistor quang (hoặc hai Diode quang).
++ Một đĩa mỏng kim loại có các rãnh: được lắp trên trục Delco. Bên ngoài đĩa thường có 360 rãnh cho cảm biến Ne, bên trong có 4 rãnh cho cảm biến G, rãnh to nhất để xác định ĐCT piston số 1.
++ Đĩa cảm biến bố trí giữa các cặp quang học, phía trên đĩa bố trí 2 led, phía dưới đĩa bố trí 2 transistor quang hoặc diode quang.</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi trục Delco quay làm đĩa cảm biến quay. Sự chuyển động của cảm biến làm cho Transistor quang lúc nhận ánh sáng từ Led lúc không nhận ánh sáng.
+Khi contact máy On led sáng. 
+Nếu transistor quang không nhận ánh sáng nó đóng và transistor Tr1 đóng theo, điện áp tại cực Ne là 5V.
+Khi transistor quang nhận ánh sang nó mở, có dòng điện đi qua transistor quang điều khiển transistor Tr1 mở theo. Lúc này có dòng điện đi như sau: VC= 5V → Điện trở → Cực Ne → Tr1→ Mass và điện áp tại cực Ne là 0V.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bài 3: Cảm Biến Nhiệt Độ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Các cảm biến nhiệt độ có đặc điểm chung nó là một chất bán dẫn có trị số nhiệt điện trở âm (Khi nhiệt độ tang, điện trở giảm và ngược lại).
+Sơ đồ mạch điện của các cảm biến nhiệt độ là như nhau.
+Như vậy khi nhiệt độ cảm biến thay đổi, điện áp tín hiệu TH thay theo. 
+Bộ vi xử lý xác định tín hiệu nhiệt độ bằng cách đo điện áp tại cực TH.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I. Cảm biến nhiệt độ không khí nạp</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1875,33 +2070,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2 Bố trí trong hệ thống đánh lửa trực tiếp và không bộ chia điện</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
- Có thiết kế nhỏ gọn hơn kiểu dùng bộ chia điện. Cấu tạo gồm có: 
- Một rotor cảm biến.
- Một cảm biến (gồm một cuộn dây và một nam châm).
- Khi rotor quay khe hở từ thay đổi nên từ thông qua cuộn dây cũng thay  đổi tạo ra một sức điện động xoay chiều gửi về ECU.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1 Bố trí trong bộ chia điện (Delco)</t>
+</t>
     </r>
     <r>
       <rPr>
@@ -1910,37 +2080,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">
- Cấu tạo gồm có:
-  IC Hall.
-  Nam châm vĩnh cửu.
-  Các cánh của rotor cảm biến G và Ne.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>III. Cảm biến quang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Cảm biến này được bố trí trong hệ thống đánh lửa dung bộ chia điện.
-Cấu tạo gồm có: 
-+ Hai cặp quang học: hai Led và hai Transistor quang (hoặc hai Diode quang).
-+ Một đĩa mỏng kim loại có các rãnh: được lắp trên trục Delco. Bên ngoài đĩa thường có 360 rãnh cho cảm biến Ne, bên trong có 4 rãnh cho cảm biến G, rãnh to nhất để xác định ĐCT piston số 1.
-+ Đĩa cảm biến bố trí giữa các cặp quang học, phía trên đĩa bố trí 2 led, phía dưới đĩa bố trí 2 transistor quang hoặc diode quang.</t>
+      <t>Cảm biến xác định mật độ của không khí khi nhiệt độ không khí thay đổi, nó kết hợp với bộ đo gió để xác định chính xác khối lượng không khí nạp vào động cơ.
+Chuẩn làm việc của cảm biến là 20°C. Khi nhiệt độ không khí lớn hơn 20°C, ECU điều khiển giảm lượng nhiên liệu phun và ngược lại.</t>
     </r>
   </si>
   <si>
@@ -1962,9 +2103,9 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
- Cảm biến được bố trí ở đường nước làm mát, nơi cảm nhận nhiệt độ nước là tốt nhất.
- Chuẩn làm việc của cảm biến là 80°C. Khi nhiệt độ nước dưới 80°C, ECU xem động cơ lạnh.
- Tín hiệu cảm biến nhiệt độ nước dùng để tăng lượng phun, góc đánh lửa sớm, tốc độ cầm chừng khi động cơ lạnh, điều khiển quạt làm mát, hệ thống tuần hoàn khí thải EGR,…</t>
+Cảm biến được bố trí ở đường nước làm mát, nơi cảm nhận nhiệt độ nước là tốt nhất.
+Chuẩn làm việc của cảm biến là 80°C. Khi nhiệt độ nước dưới 80°C, ECU xem động cơ lạnh.
+Tín hiệu cảm biến nhiệt độ nước dùng để tăng lượng phun, góc đánh lửa sớm, tốc độ cầm chừng khi động cơ lạnh, điều khiển quạt làm mát, hệ thống tuần hoàn khí thải EGR,…</t>
     </r>
   </si>
   <si>
@@ -1986,40 +2127,9 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
- Bố trí mạch nhiên liệu vào ở bơm cao áp hoặc bố trí trên đường ống nhiên liệu hồi.
- Ở động cơ Diesel, do áp suất nhiên liệu trong ống phân phối có thể đạt đến 200Mpa. Do vậy khi nhiệt độ vượt quá 125°C sẽ ảnh hưởng đến vấn đề bôi trơn và làm mát bơm cao áp cũng như các kim phun.
- Khi nhiệt độ nhiên liệu vượt quá mức qui định, ECU sẽ điều khiển giảm áp suất nhiên liệu trong ống phân phối.</t>
-    </r>
-  </si>
-  <si>
-    <t>Khi bướm ga mở, thông qua trục bướm ga sẽ làm cho các nam châm xoay theo làm vị trí của chúng thay đổi, mật độ từ thông qua IC Hall cũng thay đổi theo. 
- Do vậy, tín hiệu VTA và VTA2 thay đổi theo và gửi tín hiệu về ECU</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I. Cảm biến vị trí bướm ga kiểu tiếp điểm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Được sử dụng cho động cơ cũ, thông dụng là kiểu hai tiếp điểm 3 cực
-  IDL: Xác định cầm chừng.
-  PSW: Xác định tải lớn.
-  E2: Mass cảm biến.</t>
+Bố trí mạch nhiên liệu vào ở bơm cao áp hoặc bố trí trên đường ống nhiên liệu hồi.
+Ở động cơ Diesel, do áp suất nhiên liệu trong ống phân phối có thể đạt đến 200Mpa. Do vậy khi nhiệt độ vượt quá 125°C sẽ ảnh hưởng đến vấn đề bôi trơn và làm mát bơm cao áp cũng như các kim phun.
+Khi nhiệt độ nhiên liệu vượt quá mức qui định, ECU sẽ điều khiển giảm áp suất nhiên liệu trong ống phân phối.</t>
     </r>
   </si>
   <si>
@@ -2031,7 +2141,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>III. Cảm biến vị trí bướm ga kiểu tuyến tính không có tiếp điểm IDL</t>
+      <t>Bài 4: Cảm Biến Vị Trí Bướm Ga</t>
     </r>
     <r>
       <rPr>
@@ -2041,293 +2151,12 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
- Ở kiểu này cực IDL được bỏ đi.
- ECU xác định các chế độ tải qua cực VTA, ở tốc độ cầm chừng điện áp  cực VTA = 0,45 – 0,65V.</t>
+Cảm biến vị trí bướm ga kiểu tiếp điểm
+  Được sử dụng cho động cơ cũ, thông dụng là kiểu hai tiếp điểm 3 cực
+  IDL: Xác định cầm chừng.
+  PSW: Xác định tải lớn.
+  E2: Mass cảm biến.</t>
     </r>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\1.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\1.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\1.PNG</t>
-  </si>
-  <si>
-    <t>Khi động cơ hoạt động, không khí làm mát dây nhiệt làm cho điện trở của nó giảm nên điện áp VB gia tăng.
-Khi VB &gt; VA bộ so sánh hoạt động và điều khiển transistor mở cho dòng điện 12V từ relay chính cung cấp cho dây nhiệt.
-Lúc này dây nhiệt được nung nóng làm cho điện trở của nó tăng nên điện áp VB giảm. Khi VB =VA thì transistor đóng.
-Bằng cách đo điện áp tại điểm B, ECU xác định được lượng không khí nạp vào động cơ.
-Khi nhiệt độ không khí nạp thấp, điện trở nhiệt sẽ cao và điện áp tại điểm A sẽ thấp, như vậy khả năng làm mát dây nhiệt sẽ tốt hơn và transistor sẽ mở sớm.</t>
-  </si>
-  <si>
-    <r>
-      <t>II.  Bộ đo gió Karman siêu âm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- Không khí từ lọc gió qua bộ hướng dòng khí nạp có dạng hình tổ ong, chạm vào trụ tạo xoáy tạo ra các dòng xoáy Karman
- Khi không có dòng khí nạp, thời gian truyền sóng T từ bộ phát sóng siêu âm đi đến bộ tiếp nhận là cố định.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Khi có không khí từ lọc gió qua bộ hướng dòng khí nạp có dạng hình tổ ong, tiếp tục chạm vào trụ tạo xoáy sẽ tạo ra các dòng xoáy Karman cùng và ngược chiều kim đồng hồ.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bài 2: Cảm Biến G và Cảm Biến Ne</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Cảm biến G: 
- ECU dùng tín hiệu này để xác định vị trí piston số 1 tại ĐCT, từ đó xác định ĐCT của các xy lanh khác. Tín hiệu này dùng để điều khiển thời điểm bắt đầu phun nhiên liệu và dùng để xác định thời điểm đánh lửa chuẩn, từ đó ECU căn cứ vào tín hiệu của các cảm biến hiệu chỉnh để dịch chuyển thời điểm đánh lửa sớm hoặc phun dầu sớm để công suất động cơ đạt tối ưu.
-Cảm biến Ne: 
- Còn gọi là cảm biến số vòng quay động cơ. Cảm biến này dùng để điều khiển góc đánh lửa sớm, lượng nhiên liệu phun, tốc độ cầm chừng, rờ le bơm nhiên liệu, hệ thống tuần hoàn khí xả (EGR) và nhiều hệ thống khác.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>II. Cảm biến Hall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Khi ta cho dòng điện đi qua một tấm bán dẫn mỏng (Phần tử Hall) và tín hiệu đầu ra vuông góc với phương của dòng điện I (Như hình bên).
-Khi không có từ trường đi qua phần tử Hall, cường độ dòng điện I phân bố đều và không có điện áp ở tín hiệu đầu ra (V = 0).</t>
-    </r>
-  </si>
-  <si>
-    <t>Khi cánh rotor nằm chắn giữa IC Hall và nam châm, không có từ thông đi qua IC Hall, nên điện áp sinh ra từ IC Hall bằng không.
-Khi cánh rotor không chắn, từ thông qua IC Hall sinh ra một điện áp ở đầu ra.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2 Bố trí trong hệ thống đánh lửa trực tiếp và không bộ chia điện</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- Cấu tạo gồm có:  
-  IC có tích hợp MRE (IC hiệu ứng Hall).
-  Một nam châm vĩnh cửu.
-  Một rotor cảm biến.</t>
-    </r>
-  </si>
-  <si>
-    <t>Khi trục Delco quay làm đĩa cảm biến quay. Sự chuyển động của cảm biến làm cho Transistor quang lúc nhận ánh sáng từ Led lúc không nhận ánh sáng.
-Khi contact máy On led sáng.
-Nếu transistor quang không nhận ánh sang nó đóng và transistor Tr1 đóng theo, điện áp tại cực Ne là 5V.
-Khi transistor quang nhận ánh sang nó mở, có dòng điện đi qua transistor quang điều khiển transistor Tr1 mở theo. Lúc này có dòng điện đi như sau: VC= 5V → Điện trở → Cực Ne → Tr1→ Mass và điện áp tại cực Ne là 0V.</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\1.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\12.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\6.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\7.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\8.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\9.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\10.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\11.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\13.PNG</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I. Cảm biến nhiệt độ không khí nạp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Cảm biến xác định mật độ của không khí khi nhiệt độ không khí thay đổi, nó kết hợp với bộ đo gió để xác định chính xác khối lượng không khí nạp vào động cơ.
- Chuẩn làm việc của cảm biến là 20°C. Khi nhiệt độ không khí lớn hơn 20°C, ECU điều khiển giảm lượng nhiên liệu phun và ngược lại.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 3: Cảm Biến Nhiệt Độ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Các cảm biến nhiệt độ có đặc điểm chung nó là một chất bán dẫn có trị số nhiệt điện trở âm (Khi nhiệt độ tang, điện trở giảm và ngược lại).
-Sơ đồ mạch điện của các cảm biến nhiệt độ là như nhau.
-Như vậy khi nhiệt độ cảm biến thay đổi, điện áp tín hiệu TH thay theo. 
-Bộ vi xử lý xác định tín hiệu nhiệt độ bằng cách đo điện áp tại cực TH.</t>
-    </r>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\4.PNG</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 4: Cảm Biến Vị Trí Bướm Ga</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Cảm biến vị trí bướm ga nằm trên thân bướm ga. Khi cảm biến chuyển góc mở bướm ga thì sẽ chuyển thành tín hiệu điện áp, ECU dung tín hiệu này để hiệu chỉnh lượng nhiên liệu phun, góc đánh lửa sớm, tốc độ cầm chừng.
-Cảm biến bướm ga có các kiểu sau:
- Kiểu tiếp điểm
- Kiểu tuyến tính
- Kiểu phần tử Hall</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ở tốc độ cầm chừng:
-  Tiếp điểm E2 nối tiếp điểm IDL, điện áp tại cực IDL = 0V, 
-  PSW = 5V. ( Tín hiệu IDL còn kết hợp với tín hiệu Ne để cắt nhiên liệu khi giảm tốc).
- Ở chế độ tải trung bình: ( Khi bướm ga xoay lớn hơn 8°)
-   Tiếp điểm E2 tách tiếp điểm IDL, điện áp tại cực IDL = 5V, 
-  PSW = 5V.
- Ở chế độ đầy tải
-   Tiếp điểm E2 nối tiếp điểm đầy tải PSW, điện áp tại cực 
-IDL = 5V, PSW = 0V. </t>
   </si>
   <si>
     <r>
@@ -2372,7 +2201,7 @@
       </rPr>
       <t xml:space="preserve"> = 0V
     Khi bướm ga mở, hai con trượt xoay ngược chiều kim đồng hồ:
-      Con trượt phía trên không còn kết nối cực E2 nên V</t>
+    Con trượt phía trên không còn kết nối cực E2 nên V</t>
     </r>
     <r>
       <rPr>
@@ -2393,8 +2222,48 @@
         <family val="1"/>
       </rPr>
       <t>= 10V.
-       Con trượt phía dưới di chuyển về phía cực VC nên điện áp cực VTA
-          tăng dần.</t>
+    Con trượt phía dưới di chuyển về phía cực VC nên điện áp cực VTA tăng dần.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bài 5: Cảm Biến Bàn Đạp Ga
+I.  Cảm biến bàn đạp ga kiểu tuyến tính
+C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ảm biến bàn đạp ga kiểu tuyến tính thì thường được bố trí ở trên thân bướm ga hoặc trên bàn đạp ga.
+Khác với cảm biến bướm ga, cảm biến bàn đạp ga sử dụng 2 nguồn 5V riêng biệt, nhưng nguyên lý tương tự cảm biến vị trí bướm ga kiểu tuyến tính.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">II.  Cảm biến bàn đạp ga kiểu phần tử Hall
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nguyên lý dựa và hiệu ứng Hall. 
+Trong cảm biến bố trí hai IC Hall cố định, 2 nguồn cung cấp 5V VCPA và  VCP2. 
+Khi đạp ga qua trục truyền động làm cho các nam châm quay xung quanh  hai IC Hall, từ thông thay đổi, tín hiệu điện áp VPA và VPA2 sẽ thay đổi  và tín hiệu này sẽ được gửi về ECU để xác định góc mở bàn đạp ga.</t>
     </r>
   </si>
   <si>
@@ -2416,101 +2285,15 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
- Cấu tạo gồm có một IC Hall và một nam châm quay quanh nó.
- Ưu điểm là có tuổi thọ và độ tin cậy cao.
- Điện áp đi ra từ  IC Hall phụ thuộc mật độ và chiều từ trường đi qua nó.  
- Khi mật độ từ thông đi qua IC Hall càng lớn thì điện áp phát ra sẽ càng  cao.</t>
+Cấu tạo gồm có một IC Hall và một nam châm quay quanh nó.
+Ưu điểm là có tuổi thọ và độ tin cậy cao.
+Điện áp đi ra từ  IC Hall phụ thuộc mật độ và chiều từ trường đi qua nó.  
+Khi mật độ từ thông đi qua IC Hall càng lớn thì điện áp phát ra sẽ càng  cao.</t>
     </r>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\6.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\7.PNG</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Bài 5: Cảm Biến Bàn Đạp Ga
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Các động cơ ngày nay đều sử dụng cảm biến bàn đạp ga. Cảm biến bàn đạp ga, motor điều khiển bướm ga và cảm biến vị trí bướm ga là một cụm, được gọi là hệ thống điều khiển bướm ga thông minh.
-Cảm biến bàn đạp ga có các kiểu sau:
- Kiểu tuyến tính
- Kiểu phần tử Hall</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">I.  Cảm biến bàn đạp ga kiểu tuyến tính
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Cảm biến bàn đạp ga kiểu tuyến tính thì thường được bố trí ở trên thân bướm ga hoặc trên bàn đạp ga.
- Khác với cảm biến bướm ga, cảm biến bàn đạp ga sử dụng 2 nguồn 5V riêng biệt, nhưng nguyên lý tương tự cảm biến vị trí bướm ga kiểu tuyến tính.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">II.  Cảm biến bàn đạp ga kiểu phần tử Hall
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nguyên lý dựa và hiệu ứng Hall. 
- Trong cảm biến bố trí hai IC Hall cố định, 2 nguồn cung cấp 5V VCPA và  VCP2. 
- Khi đạp ga qua trục truyền động làm cho các nam châm quay xung quanh  hai IC Hall, từ thông thay đổi, tín hiệu điện áp VPA và VPA2 sẽ thay đổi  và tín hiệu này sẽ được gửi về ECU để xác định góc mở bàn đạp ga.</t>
-    </r>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\3.PNG</t>
-  </si>
-  <si>
-    <t>ENDEND</t>
+    <t>Khi bướm ga mở, thông qua trục bướm ga sẽ làm cho các nam châm xoay theo làm vị trí của chúng thay đổi, mật độ từ thông qua IC Hall cũng thay đổi theo. 
+Do vậy, tín hiệu VTA và VTA2 thay đổi theo và gửi tín hiệu về ECU</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +2470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2755,6 +2538,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3073,9 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3123,7 +2907,7 @@
       </c>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="207.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -3133,8 +2917,8 @@
       <c r="C2" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>486</v>
+      <c r="D2" s="33" t="s">
+        <v>523</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -3158,7 +2942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -3166,10 +2950,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -3193,7 +2977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -3201,10 +2985,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>503</v>
+        <v>487</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>525</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -3228,7 +3012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -3236,10 +3020,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -3263,7 +3047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="180" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -3271,10 +3055,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -3298,7 +3082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -3306,10 +3090,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -3333,7 +3117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
@@ -3341,10 +3125,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -3368,7 +3152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
@@ -3376,10 +3160,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -3411,10 +3195,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -3438,150 +3222,62 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>14</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="4"/>
       <c r="D15" s="19"/>
@@ -3631,13 +3327,9 @@
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
     <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -4272,7 +3964,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>75</v>
       </c>
@@ -5811,8 +5503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5860,7 +5552,7 @@
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="180" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="166.2" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -5868,7 +5560,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>532</v>
@@ -5903,10 +5595,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -5930,7 +5622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -5938,10 +5630,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -5965,7 +5657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="139.80000000000001" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -5973,10 +5665,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -6000,7 +5692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="111" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -6008,10 +5700,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -6035,7 +5727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -6043,10 +5735,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -6070,7 +5762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
@@ -6078,10 +5770,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -6113,10 +5805,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -6148,10 +5840,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -6183,10 +5875,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -6210,7 +5902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -6218,10 +5910,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -6245,7 +5937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="180" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -6253,10 +5945,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -6280,7 +5972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="111" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>30</v>
       </c>
@@ -6288,10 +5980,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -6347,7 +6039,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6393,7 +6085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -6401,10 +6093,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>551</v>
+        <v>495</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>544</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -6428,7 +6120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="70.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -6436,10 +6128,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>13</v>
@@ -6471,10 +6163,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -6506,10 +6198,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -6563,10 +6255,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6612,7 +6304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -6620,10 +6312,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>553</v>
+        <v>498</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>548</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -6647,42 +6339,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:11" ht="152.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="152.4" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -6690,12 +6382,12 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="E4" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -6710,27 +6402,27 @@
       <c r="I4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="32" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="198.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="18" t="s">
@@ -6739,45 +6431,45 @@
       <c r="G5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="32" t="s">
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:11" ht="111" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="18" t="s">
@@ -6787,23 +6479,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="111" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
@@ -6822,58 +6514,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="30"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6884,7 +6541,6 @@
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6892,10 +6548,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6941,7 +6597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="180" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -6949,10 +6605,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>560</v>
+        <v>502</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>550</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -6976,7 +6632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="111" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -6984,10 +6640,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>563</v>
+        <v>521</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -7011,51 +6667,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>565</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9628,7 +9248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="180" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -9661,7 +9281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="180" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>30</v>
       </c>
@@ -9928,7 +9548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="304.2" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>79</v>
       </c>
@@ -10729,7 +10349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="221.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="235.2" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -10924,7 +10544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="331.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>34</v>
       </c>
